--- a/UZ/moduls/1С.xlsx
+++ b/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72673E40-361F-4427-ABD9-2C1D3DE58FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B33B23-3439-4E84-BDDD-BD09FE1E3A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>1С</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг_A/UZ</t>
+  </si>
+  <si>
+    <t>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -501,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +744,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1001300456787</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
